--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3172266.766367156</v>
+        <v>3169722.991700498</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5639921989974</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>12.83561175645087</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.1050195542558</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587338</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>152.8004413602295</v>
       </c>
       <c r="T2" t="n">
-        <v>59.63506547048514</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.5639921989974</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.5639921989974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072416</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>155.9164798628751</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.2813149924047</v>
       </c>
     </row>
     <row r="4">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404795</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>238.0190565094557</v>
+        <v>259.7643409249241</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>212.5689651179051</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>263.7138800015061</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187183</v>
+        <v>77.09393081742164</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285017</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.0477154881478</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>137.8659171849199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>220.8920305126476</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110072</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>108.1854048069368</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999791</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,10 +2138,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722611</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072261</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444142</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2221392720407</v>
+        <v>419.2454232255682</v>
       </c>
       <c r="C2" t="n">
-        <v>307.2221392720407</v>
+        <v>419.2454232255682</v>
       </c>
       <c r="D2" t="n">
-        <v>307.2221392720407</v>
+        <v>419.2454232255682</v>
       </c>
       <c r="E2" t="n">
-        <v>40.99588452557869</v>
+        <v>419.2454232255682</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637522</v>
+        <v>412.2999224763648</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0851193759198</v>
+        <v>399.3346580759094</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0851193759198</v>
+        <v>137.6124161019136</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701088</v>
+        <v>49.14994660701113</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164411</v>
+        <v>141.9503658164417</v>
       </c>
       <c r="L2" t="n">
-        <v>293.9792536780725</v>
+        <v>293.9792536780734</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173908</v>
+        <v>495.8504424173905</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238172</v>
+        <v>704.5447722238173</v>
       </c>
       <c r="O2" t="n">
-        <v>888.273648738112</v>
+        <v>888.2736487381126</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266319</v>
+        <v>1010.58099326632</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="S2" t="n">
-        <v>899.9120886341417</v>
+        <v>899.9120886341432</v>
       </c>
       <c r="T2" t="n">
-        <v>839.6746487649648</v>
+        <v>685.4716779720306</v>
       </c>
       <c r="U2" t="n">
-        <v>839.6746487649648</v>
+        <v>685.4716779720306</v>
       </c>
       <c r="V2" t="n">
-        <v>839.6746487649648</v>
+        <v>419.2454232255682</v>
       </c>
       <c r="W2" t="n">
-        <v>839.6746487649648</v>
+        <v>419.2454232255682</v>
       </c>
       <c r="X2" t="n">
-        <v>573.4483940185028</v>
+        <v>419.2454232255682</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.2221392720407</v>
+        <v>419.2454232255682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2445712968686</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="C3" t="n">
-        <v>475.7915420157416</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8571323544903</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6196773490348</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9487307741812</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="K3" t="n">
-        <v>192.5098291378354</v>
+        <v>95.64621773957427</v>
       </c>
       <c r="L3" t="n">
-        <v>339.088968453967</v>
+        <v>242.2253570557062</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168091</v>
+        <v>432.6331671185486</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516402</v>
+        <v>648.1818400501577</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271646</v>
+        <v>909.1101923271655</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.02243028045</v>
+        <v>1026.022430280451</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158895</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.871862158895</v>
+        <v>905.6052437437235</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.871862158895</v>
+        <v>708.7930347737531</v>
       </c>
       <c r="U3" t="n">
-        <v>807.7359650977526</v>
+        <v>480.6571377126111</v>
       </c>
       <c r="V3" t="n">
-        <v>650.2445712968686</v>
+        <v>480.6571377126111</v>
       </c>
       <c r="W3" t="n">
-        <v>650.2445712968686</v>
+        <v>226.4197809844094</v>
       </c>
       <c r="X3" t="n">
-        <v>650.2445712968686</v>
+        <v>226.4197809844094</v>
       </c>
       <c r="Y3" t="n">
-        <v>650.2445712968686</v>
+        <v>21.08511937591982</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.1586402885949</v>
+        <v>190.0213023038267</v>
       </c>
       <c r="C4" t="n">
-        <v>331.1586402885949</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="D4" t="n">
-        <v>331.1586402885949</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2455467062018</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="F4" t="n">
-        <v>36.35559920829147</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="G4" t="n">
-        <v>36.35559920829147</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="H4" t="n">
-        <v>36.35559920829147</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="I4" t="n">
-        <v>36.35559920829147</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0851193759198</v>
+        <v>21.08511937591982</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953608</v>
+        <v>126.327239195361</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735295</v>
+        <v>316.5273535735299</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559539</v>
+        <v>527.4558292559547</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568275</v>
+        <v>738.8035136568286</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005226</v>
+        <v>918.0010123005238</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485825</v>
+        <v>1047.814747485826</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.25596879599</v>
+        <v>1054.255968795991</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.25596879599</v>
+        <v>925.4341625632139</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.25596879599</v>
+        <v>718.6357802067781</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.25596879599</v>
+        <v>718.6357802067781</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.25596879599</v>
+        <v>452.4095254603157</v>
       </c>
       <c r="V4" t="n">
-        <v>799.5714805901029</v>
+        <v>452.4095254603157</v>
       </c>
       <c r="W4" t="n">
-        <v>559.1481911866123</v>
+        <v>190.0213023038267</v>
       </c>
       <c r="X4" t="n">
-        <v>331.1586402885949</v>
+        <v>190.0213023038267</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.1586402885949</v>
+        <v>190.0213023038267</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
         <v>21.09711040012049</v>
@@ -4644,19 +4644,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>503.6022960313624</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>713.6562631339674</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560896</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460803</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405475</v>
+        <v>273.4227970725825</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755936</v>
+        <v>273.4227970725825</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.0332933280274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
         <v>21.09711040012049</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>820.4638881998146</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>592.4743373017973</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.6817581582671</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360222</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.63763941981</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.37194081306</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148155</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1876.889363126071</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1524.120707855957</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1150.654949594877</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424344</v>
+        <v>760.5156176190651</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4863,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143497</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458215</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>417.9651836029403</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5744,49 +5744,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703778</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969299</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5972,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,10 +6023,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6069,25 +6069,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6485,28 +6485,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191924</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,34 +6598,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6968,7 +6968,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,22 +7494,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.050829008595741</v>
+        <v>1.050829008594036</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518677</v>
+        <v>60.6099493751866</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.96589850477821</v>
+        <v>2.123866789362495</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.750191713916763</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.09184000149804</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211351</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.91627445172446</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823325</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729182.7369719115</v>
+        <v>729182.7369719114</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>732861.189212681</v>
+        <v>732861.1892126809</v>
       </c>
     </row>
     <row r="5">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.274728755</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163114</v>
+        <v>679693.2761163121</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389969803</v>
+        <v>373.9475389962489</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245462</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491448</v>
+        <v>68959.93717491458</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395600096</v>
+        <v>38.57632395597522</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756986</v>
+        <v>95382.64613756977</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077616</v>
+        <v>246846.0156077614</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731962</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731956</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731994</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731985</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731981</v>
+        <v>8117.312426731976</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732006</v>
+        <v>8117.312426732009</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731933</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731997</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426732011</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731953</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.8969336037</v>
+        <v>63030.89693360373</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271158.6400264289</v>
+        <v>-271158.6400264293</v>
       </c>
       <c r="C6" t="n">
-        <v>408235.9304897534</v>
+        <v>408235.9304897541</v>
       </c>
       <c r="D6" t="n">
-        <v>100027.4121235958</v>
+        <v>100027.4121235962</v>
       </c>
       <c r="E6" t="n">
-        <v>89527.99085357004</v>
+        <v>89493.25292813439</v>
       </c>
       <c r="F6" t="n">
-        <v>597013.4324781168</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="G6" t="n">
-        <v>597013.4324781164</v>
+        <v>596978.6945526805</v>
       </c>
       <c r="H6" t="n">
-        <v>597013.4324781161</v>
+        <v>596978.6945526811</v>
       </c>
       <c r="I6" t="n">
-        <v>597013.4324781167</v>
+        <v>596978.6945526806</v>
       </c>
       <c r="J6" t="n">
-        <v>528053.4953032015</v>
+        <v>528018.7573777656</v>
       </c>
       <c r="K6" t="n">
-        <v>596974.8561541602</v>
+        <v>596940.1182287246</v>
       </c>
       <c r="L6" t="n">
-        <v>501630.7863405467</v>
+        <v>501596.0484151107</v>
       </c>
       <c r="M6" t="n">
-        <v>464406.1387491898</v>
+        <v>464371.4008237537</v>
       </c>
       <c r="N6" t="n">
-        <v>597013.4324781159</v>
+        <v>596978.6945526804</v>
       </c>
       <c r="O6" t="n">
-        <v>597013.4324781161</v>
+        <v>596978.6945526807</v>
       </c>
       <c r="P6" t="n">
-        <v>597013.4324781166</v>
+        <v>596978.6945526809</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726906</v>
+        <v>613.6975324726913</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989974</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726906</v>
+        <v>613.6975324726913</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967876824</v>
+        <v>0.3574812967870002</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241349</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.439663707383302e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989974</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025087151</v>
+        <v>0.1498878025083741</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989974</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="K4" t="n">
         <v>0.1498878025083741</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985332</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989974</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025087151</v>
+        <v>0.1498878025083741</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.3663778732644</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396427</v>
+        <v>55.10333088538692</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587339</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>152.6609410850062</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.18826627113714</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.1671084794716</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6739464570562</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928075</v>
+        <v>99.48674643928074</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225827</v>
+        <v>43.94827785225822</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.20026557072407</v>
       </c>
       <c r="S3" t="n">
-        <v>147.164217801745</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802707</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>76.88410728655012</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>2.401380784899658</v>
       </c>
     </row>
     <row r="4">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8843116769506</v>
@@ -27555,10 +27555,10 @@
         <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597229</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404787</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704494</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328715</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586656647723</v>
+        <v>22.69467346577449</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>48.50394182713535</v>
+        <v>26.75865741166695</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.7039266531025</v>
+        <v>105.6401949994328</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114899</v>
+        <v>89.4392528324457</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27743,25 +27743,25 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081376</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>54.47528284844319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>269.0101285567916</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>106.8602279574873</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.3375935296542</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.632190443471565e-14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28858,10 +28858,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-2.368521610171397e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.231653232955237e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684181</v>
+        <v>2.467125758684184</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612438</v>
+        <v>25.26645167612441</v>
       </c>
       <c r="I2" t="n">
-        <v>95.113865811672</v>
+        <v>95.1138658116721</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611217</v>
+        <v>209.394214861122</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262232</v>
+        <v>313.8276482262235</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635543</v>
+        <v>389.3309481635547</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745541</v>
+        <v>433.2056958745545</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364155</v>
+        <v>440.215416936416</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351734997</v>
+        <v>415.6829351735001</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059839</v>
+        <v>354.7757680059843</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731065</v>
+        <v>266.4218267731069</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389454</v>
+        <v>154.9755884389455</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601584</v>
+        <v>56.2196282260159</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864001</v>
+        <v>10.79984300864002</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947345</v>
+        <v>0.1973700606947347</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32002865475258</v>
+        <v>1.320028654752581</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721571</v>
+        <v>12.74869779721572</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915681</v>
+        <v>45.44835499915686</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773041</v>
+        <v>124.7137598773042</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457269</v>
+        <v>213.1556797457271</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628354</v>
+        <v>286.6141164628357</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976163</v>
+        <v>334.4651551976167</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235668</v>
+        <v>343.3174526235672</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419438</v>
+        <v>314.0683966419442</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641133</v>
+        <v>252.0675770641135</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592942</v>
+        <v>168.5004998592944</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191898</v>
+        <v>81.95756858191906</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209286</v>
+        <v>24.51895330209289</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550966</v>
+        <v>5.320641814550973</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868439904442487</v>
+        <v>0.0868439904442488</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10666768150813</v>
+        <v>1.106667681508132</v>
       </c>
       <c r="H4" t="n">
-        <v>9.83928175013593</v>
+        <v>9.839281750135941</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753542</v>
+        <v>33.28051536753546</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262482</v>
+        <v>78.24140508262491</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606718</v>
+        <v>128.574663360672</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943997</v>
+        <v>164.5313023943999</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840426</v>
+        <v>173.4751893840428</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166034</v>
+        <v>169.3503371166036</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735311</v>
+        <v>156.4224464735312</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707651</v>
+        <v>133.8464257707653</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337627</v>
+        <v>92.66832740337638</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672011</v>
+        <v>49.75980320672016</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410078</v>
+        <v>19.2861995041008</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625647</v>
+        <v>4.728489184625652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862536</v>
+        <v>0.06036369171862543</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,16 +32072,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334968</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,13 +33266,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443544</v>
+        <v>28.34831033443567</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124263</v>
+        <v>93.73779718124297</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935671</v>
+        <v>153.5645331935675</v>
       </c>
       <c r="M2" t="n">
-        <v>203.9102916558771</v>
+        <v>203.9102916558758</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398246</v>
+        <v>210.8023533398251</v>
       </c>
       <c r="O2" t="n">
-        <v>185.584723751813</v>
+        <v>185.5847237518134</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507143</v>
+        <v>123.5427722507147</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865706</v>
+        <v>44.1161368986574</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.84203171541557</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136791</v>
+        <v>75.31424077136813</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829612</v>
+        <v>148.0597366829615</v>
       </c>
       <c r="M3" t="n">
-        <v>192.331121275598</v>
+        <v>192.3311212755984</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402335</v>
+        <v>217.7259322541506</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974994</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="P3" t="n">
-        <v>118.093169649783</v>
+        <v>118.0931696497833</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327271</v>
+        <v>28.51872577327291</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.305171534789</v>
+        <v>106.3051715347891</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547159</v>
+        <v>192.121327654716</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458832</v>
+        <v>213.0590663458834</v>
       </c>
       <c r="N4" t="n">
-        <v>213.482509495832</v>
+        <v>213.4825094958322</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875707</v>
+        <v>181.0075743875709</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356586</v>
+        <v>131.1249850356587</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681882</v>
+        <v>6.506284151681996</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35021,13 +35021,13 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819416</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>285.5958035752567</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591378</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,16 +36437,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,13 +36610,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
